--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1595.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1595.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.341455165448525</v>
+        <v>0.563732385635376</v>
       </c>
       <c r="B1">
-        <v>3.376946886009961</v>
+        <v>2.643516302108765</v>
       </c>
       <c r="C1">
-        <v>5.272819916393906</v>
+        <v>6.484146118164062</v>
       </c>
       <c r="D1">
-        <v>1.645927938305227</v>
+        <v>1.910553097724915</v>
       </c>
       <c r="E1">
-        <v>0.9037235825018614</v>
+        <v>1.601638793945312</v>
       </c>
     </row>
   </sheetData>
